--- a/fold_results_summary.xlsx
+++ b/fold_results_summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>XGBoost</t>
+  </si>
+  <si>
+    <t>CLUS+</t>
   </si>
   <si>
     <t>rmse_mean</t>
@@ -438,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1344,9 +1347,6 @@
       <c r="H26">
         <v>23040</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
         <v>23040</v>
       </c>
@@ -1379,9 +1379,6 @@
       <c r="H27">
         <v>23040</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
         <v>23040</v>
       </c>
@@ -1414,9 +1411,6 @@
       <c r="H28">
         <v>23040</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
         <v>23040</v>
       </c>
@@ -1449,9 +1443,6 @@
       <c r="H29">
         <v>23040</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
         <v>23040</v>
       </c>
@@ -1484,9 +1475,6 @@
       <c r="H30">
         <v>23040</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
         <v>23040</v>
       </c>
@@ -1519,9 +1507,6 @@
       <c r="H31">
         <v>23040</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31">
         <v>23040</v>
       </c>
@@ -1554,9 +1539,6 @@
       <c r="H32">
         <v>23040</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32">
         <v>23040</v>
       </c>
@@ -1589,9 +1571,6 @@
       <c r="H33">
         <v>23040</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
         <v>23040</v>
       </c>
@@ -1624,9 +1603,6 @@
       <c r="H34">
         <v>23040</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34">
         <v>23040</v>
       </c>
@@ -1659,9 +1635,6 @@
       <c r="H35">
         <v>23040</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35">
         <v>23040</v>
       </c>
@@ -1694,9 +1667,6 @@
       <c r="H36">
         <v>23040</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36">
         <v>23040</v>
       </c>
@@ -1729,9 +1699,6 @@
       <c r="H37">
         <v>23040</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37">
         <v>23040</v>
       </c>
@@ -1764,9 +1731,6 @@
       <c r="H38">
         <v>23040</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
         <v>23040</v>
       </c>
@@ -1799,9 +1763,6 @@
       <c r="H39">
         <v>23040</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
         <v>23040</v>
       </c>
@@ -1834,9 +1795,6 @@
       <c r="H40">
         <v>23040</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
         <v>23040</v>
       </c>
@@ -1869,13 +1827,850 @@
       <c r="H41">
         <v>23040</v>
       </c>
-      <c r="I41">
+      <c r="J41">
+        <v>23040</v>
+      </c>
+      <c r="K41">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
         <v>0</v>
       </c>
-      <c r="J41">
-        <v>23040</v>
-      </c>
-      <c r="K41">
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>176.4141</v>
+      </c>
+      <c r="E42">
+        <v>115.5601</v>
+      </c>
+      <c r="F42">
+        <v>0.37923</v>
+      </c>
+      <c r="G42">
+        <v>0.85694</v>
+      </c>
+      <c r="H42">
+        <v>2304</v>
+      </c>
+      <c r="I42">
+        <v>20736</v>
+      </c>
+      <c r="J42">
+        <v>23040</v>
+      </c>
+      <c r="K42">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>167.2953</v>
+      </c>
+      <c r="E43">
+        <v>111.0151</v>
+      </c>
+      <c r="F43">
+        <v>0.35962</v>
+      </c>
+      <c r="G43">
+        <v>0.87344</v>
+      </c>
+      <c r="H43">
+        <v>4608</v>
+      </c>
+      <c r="I43">
+        <v>18432</v>
+      </c>
+      <c r="J43">
+        <v>23040</v>
+      </c>
+      <c r="K43">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>70</v>
+      </c>
+      <c r="D44">
+        <v>173.0206</v>
+      </c>
+      <c r="E44">
+        <v>115.6944</v>
+      </c>
+      <c r="F44">
+        <v>0.37193</v>
+      </c>
+      <c r="G44">
+        <v>0.8633999999999999</v>
+      </c>
+      <c r="H44">
+        <v>16127</v>
+      </c>
+      <c r="I44">
+        <v>6913</v>
+      </c>
+      <c r="J44">
+        <v>23040</v>
+      </c>
+      <c r="K44">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>167.5391</v>
+      </c>
+      <c r="E45">
+        <v>135.3917</v>
+      </c>
+      <c r="F45">
+        <v>0.55089</v>
+      </c>
+      <c r="G45">
+        <v>0.79066</v>
+      </c>
+      <c r="H45">
+        <v>2304</v>
+      </c>
+      <c r="I45">
+        <v>20736</v>
+      </c>
+      <c r="J45">
+        <v>23040</v>
+      </c>
+      <c r="K45">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>113.3384</v>
+      </c>
+      <c r="E46">
+        <v>67.20059999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.37267</v>
+      </c>
+      <c r="G46">
+        <v>0.86436</v>
+      </c>
+      <c r="H46">
+        <v>4608</v>
+      </c>
+      <c r="I46">
+        <v>18432</v>
+      </c>
+      <c r="J46">
+        <v>23040</v>
+      </c>
+      <c r="K46">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>70</v>
+      </c>
+      <c r="D47">
+        <v>129.8783</v>
+      </c>
+      <c r="E47">
+        <v>95.7851</v>
+      </c>
+      <c r="F47">
+        <v>0.42706</v>
+      </c>
+      <c r="G47">
+        <v>0.84313</v>
+      </c>
+      <c r="H47">
+        <v>16127</v>
+      </c>
+      <c r="I47">
+        <v>6913</v>
+      </c>
+      <c r="J47">
+        <v>23040</v>
+      </c>
+      <c r="K47">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>68.3886</v>
+      </c>
+      <c r="E48">
+        <v>29.2707</v>
+      </c>
+      <c r="F48">
+        <v>0.2515</v>
+      </c>
+      <c r="G48">
+        <v>0.93681</v>
+      </c>
+      <c r="H48">
+        <v>2304</v>
+      </c>
+      <c r="I48">
+        <v>20736</v>
+      </c>
+      <c r="J48">
+        <v>23040</v>
+      </c>
+      <c r="K48">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>66.7204</v>
+      </c>
+      <c r="E49">
+        <v>28.2318</v>
+      </c>
+      <c r="F49">
+        <v>0.24536</v>
+      </c>
+      <c r="G49">
+        <v>0.94026</v>
+      </c>
+      <c r="H49">
+        <v>4608</v>
+      </c>
+      <c r="I49">
+        <v>18432</v>
+      </c>
+      <c r="J49">
+        <v>23040</v>
+      </c>
+      <c r="K49">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>70</v>
+      </c>
+      <c r="D50">
+        <v>67.2094</v>
+      </c>
+      <c r="E50">
+        <v>36.7095</v>
+      </c>
+      <c r="F50">
+        <v>0.24716</v>
+      </c>
+      <c r="G50">
+        <v>0.9414400000000001</v>
+      </c>
+      <c r="H50">
+        <v>16127</v>
+      </c>
+      <c r="I50">
+        <v>6913</v>
+      </c>
+      <c r="J50">
+        <v>23040</v>
+      </c>
+      <c r="K50">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>100.5684</v>
+      </c>
+      <c r="E51">
+        <v>70.31189999999999</v>
+      </c>
+      <c r="F51">
+        <v>0.20125</v>
+      </c>
+      <c r="G51">
+        <v>0.96436</v>
+      </c>
+      <c r="H51">
+        <v>2304</v>
+      </c>
+      <c r="I51">
+        <v>20736</v>
+      </c>
+      <c r="J51">
+        <v>23040</v>
+      </c>
+      <c r="K51">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>101.5896</v>
+      </c>
+      <c r="E52">
+        <v>65.1279</v>
+      </c>
+      <c r="F52">
+        <v>0.20329</v>
+      </c>
+      <c r="G52">
+        <v>0.9605399999999999</v>
+      </c>
+      <c r="H52">
+        <v>4608</v>
+      </c>
+      <c r="I52">
+        <v>18432</v>
+      </c>
+      <c r="J52">
+        <v>23040</v>
+      </c>
+      <c r="K52">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>70</v>
+      </c>
+      <c r="D53">
+        <v>95.3095</v>
+      </c>
+      <c r="E53">
+        <v>66.44410000000001</v>
+      </c>
+      <c r="F53">
+        <v>0.19072</v>
+      </c>
+      <c r="G53">
+        <v>0.96696</v>
+      </c>
+      <c r="H53">
+        <v>16127</v>
+      </c>
+      <c r="I53">
+        <v>6913</v>
+      </c>
+      <c r="J53">
+        <v>23040</v>
+      </c>
+      <c r="K53">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>113.4085</v>
+      </c>
+      <c r="E54">
+        <v>80.08320000000001</v>
+      </c>
+      <c r="F54">
+        <v>0.2588</v>
+      </c>
+      <c r="G54">
+        <v>0.93685</v>
+      </c>
+      <c r="H54">
+        <v>2304</v>
+      </c>
+      <c r="I54">
+        <v>20736</v>
+      </c>
+      <c r="J54">
+        <v>23040</v>
+      </c>
+      <c r="K54">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>111.3128</v>
+      </c>
+      <c r="E55">
+        <v>82.7646</v>
+      </c>
+      <c r="F55">
+        <v>0.25402</v>
+      </c>
+      <c r="G55">
+        <v>0.93897</v>
+      </c>
+      <c r="H55">
+        <v>4608</v>
+      </c>
+      <c r="I55">
+        <v>18432</v>
+      </c>
+      <c r="J55">
+        <v>23040</v>
+      </c>
+      <c r="K55">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>70</v>
+      </c>
+      <c r="D56">
+        <v>118.3466</v>
+      </c>
+      <c r="E56">
+        <v>91.7615</v>
+      </c>
+      <c r="F56">
+        <v>0.27007</v>
+      </c>
+      <c r="G56">
+        <v>0.93487</v>
+      </c>
+      <c r="H56">
+        <v>16127</v>
+      </c>
+      <c r="I56">
+        <v>6913</v>
+      </c>
+      <c r="J56">
+        <v>23040</v>
+      </c>
+      <c r="K56">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>150.1851</v>
+      </c>
+      <c r="E57">
+        <v>90.21559999999999</v>
+      </c>
+      <c r="F57">
+        <v>0.38255</v>
+      </c>
+      <c r="G57">
+        <v>0.85563</v>
+      </c>
+      <c r="H57">
+        <v>2304</v>
+      </c>
+      <c r="I57">
+        <v>20736</v>
+      </c>
+      <c r="J57">
+        <v>23040</v>
+      </c>
+      <c r="K57">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>155.7375</v>
+      </c>
+      <c r="E58">
+        <v>99.0474</v>
+      </c>
+      <c r="F58">
+        <v>0.3967</v>
+      </c>
+      <c r="G58">
+        <v>0.84695</v>
+      </c>
+      <c r="H58">
+        <v>4608</v>
+      </c>
+      <c r="I58">
+        <v>18432</v>
+      </c>
+      <c r="J58">
+        <v>23040</v>
+      </c>
+      <c r="K58">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>70</v>
+      </c>
+      <c r="D59">
+        <v>156.9594</v>
+      </c>
+      <c r="E59">
+        <v>102.3322</v>
+      </c>
+      <c r="F59">
+        <v>0.39981</v>
+      </c>
+      <c r="G59">
+        <v>0.84734</v>
+      </c>
+      <c r="H59">
+        <v>16127</v>
+      </c>
+      <c r="I59">
+        <v>6913</v>
+      </c>
+      <c r="J59">
+        <v>23040</v>
+      </c>
+      <c r="K59">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>149.6158</v>
+      </c>
+      <c r="E60">
+        <v>103.3055</v>
+      </c>
+      <c r="F60">
+        <v>0.34482</v>
+      </c>
+      <c r="G60">
+        <v>0.88911</v>
+      </c>
+      <c r="H60">
+        <v>2304</v>
+      </c>
+      <c r="I60">
+        <v>20736</v>
+      </c>
+      <c r="J60">
+        <v>23040</v>
+      </c>
+      <c r="K60">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>138.6226</v>
+      </c>
+      <c r="E61">
+        <v>94.8548</v>
+      </c>
+      <c r="F61">
+        <v>0.31948</v>
+      </c>
+      <c r="G61">
+        <v>0.90699</v>
+      </c>
+      <c r="H61">
+        <v>4608</v>
+      </c>
+      <c r="I61">
+        <v>18432</v>
+      </c>
+      <c r="J61">
+        <v>23040</v>
+      </c>
+      <c r="K61">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <v>140.0072</v>
+      </c>
+      <c r="E62">
+        <v>93.0985</v>
+      </c>
+      <c r="F62">
+        <v>0.32267</v>
+      </c>
+      <c r="G62">
+        <v>0.90728</v>
+      </c>
+      <c r="H62">
+        <v>16127</v>
+      </c>
+      <c r="I62">
+        <v>6913</v>
+      </c>
+      <c r="J62">
+        <v>23040</v>
+      </c>
+      <c r="K62">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>155.3245</v>
+      </c>
+      <c r="E63">
+        <v>103.1245</v>
+      </c>
+      <c r="F63">
+        <v>0.42341</v>
+      </c>
+      <c r="G63">
+        <v>0.82569</v>
+      </c>
+      <c r="H63">
+        <v>2304</v>
+      </c>
+      <c r="I63">
+        <v>20736</v>
+      </c>
+      <c r="J63">
+        <v>23040</v>
+      </c>
+      <c r="K63">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>154.005</v>
+      </c>
+      <c r="E64">
+        <v>107.1116</v>
+      </c>
+      <c r="F64">
+        <v>0.41982</v>
+      </c>
+      <c r="G64">
+        <v>0.8293199999999999</v>
+      </c>
+      <c r="H64">
+        <v>4608</v>
+      </c>
+      <c r="I64">
+        <v>18432</v>
+      </c>
+      <c r="J64">
+        <v>23040</v>
+      </c>
+      <c r="K64">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>70</v>
+      </c>
+      <c r="D65">
+        <v>159.9491</v>
+      </c>
+      <c r="E65">
+        <v>118.6083</v>
+      </c>
+      <c r="F65">
+        <v>0.43602</v>
+      </c>
+      <c r="G65">
+        <v>0.82551</v>
+      </c>
+      <c r="H65">
+        <v>16127</v>
+      </c>
+      <c r="I65">
+        <v>6913</v>
+      </c>
+      <c r="J65">
+        <v>23040</v>
+      </c>
+      <c r="K65">
         <v>10080</v>
       </c>
     </row>
@@ -1886,7 +2681,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1900,54 +2695,54 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>10.93141520553223</v>
+        <v>135.1805125</v>
       </c>
       <c r="D2">
-        <v>77.37684010392692</v>
+        <v>90.9079</v>
       </c>
       <c r="E2">
-        <v>0.1006430362250869</v>
+        <v>0.34905625</v>
       </c>
       <c r="F2">
-        <v>0.8993569637749131</v>
+        <v>0.88200625</v>
       </c>
       <c r="G2">
-        <v>23040</v>
+        <v>2304</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>20736</v>
       </c>
       <c r="I2">
         <v>23040</v>
@@ -1958,28 +2753,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>197.7379241666565</v>
+        <v>126.0777</v>
       </c>
       <c r="D3">
-        <v>140.8147523324418</v>
+        <v>81.919225</v>
       </c>
       <c r="E3">
-        <v>0.2671752078064716</v>
+        <v>0.32137</v>
       </c>
       <c r="F3">
-        <v>0.7328247921935284</v>
+        <v>0.89510375</v>
       </c>
       <c r="G3">
-        <v>2304</v>
+        <v>4608</v>
       </c>
       <c r="H3">
-        <v>20736</v>
+        <v>18432</v>
       </c>
       <c r="I3">
         <v>23040</v>
@@ -1990,28 +2785,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>191.8164271754656</v>
+        <v>130.0850125</v>
       </c>
       <c r="D4">
-        <v>135.7739063868275</v>
+        <v>90.05420000000001</v>
       </c>
       <c r="E4">
-        <v>0.2497791272323203</v>
+        <v>0.33318</v>
       </c>
       <c r="F4">
-        <v>0.7502208727676797</v>
+        <v>0.89124125</v>
       </c>
       <c r="G4">
-        <v>4608</v>
+        <v>16127</v>
       </c>
       <c r="H4">
-        <v>18432</v>
+        <v>6913</v>
       </c>
       <c r="I4">
         <v>23040</v>
@@ -2022,28 +2817,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>187.3363921669441</v>
+        <v>10.93141520553223</v>
       </c>
       <c r="D5">
-        <v>131.4769496569343</v>
+        <v>77.37684010392692</v>
       </c>
       <c r="E5">
-        <v>0.2389131106207933</v>
+        <v>0.1006430362250869</v>
       </c>
       <c r="F5">
-        <v>0.7610868893792067</v>
+        <v>0.8993569637749131</v>
       </c>
       <c r="G5">
-        <v>16127</v>
-      </c>
-      <c r="H5">
-        <v>6913</v>
+        <v>23040</v>
       </c>
       <c r="I5">
         <v>23040</v>
@@ -2054,33 +2846,126 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>197.7379241666565</v>
+      </c>
+      <c r="D6">
+        <v>140.8147523324418</v>
+      </c>
+      <c r="E6">
+        <v>0.2671752078064716</v>
+      </c>
+      <c r="F6">
+        <v>0.7328247921935284</v>
+      </c>
+      <c r="G6">
+        <v>2304</v>
+      </c>
+      <c r="H6">
+        <v>20736</v>
+      </c>
+      <c r="I6">
+        <v>23040</v>
+      </c>
+      <c r="J6">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>191.8164271754656</v>
+      </c>
+      <c r="D7">
+        <v>135.7739063868275</v>
+      </c>
+      <c r="E7">
+        <v>0.2497791272323203</v>
+      </c>
+      <c r="F7">
+        <v>0.7502208727676797</v>
+      </c>
+      <c r="G7">
+        <v>4608</v>
+      </c>
+      <c r="H7">
+        <v>18432</v>
+      </c>
+      <c r="I7">
+        <v>23040</v>
+      </c>
+      <c r="J7">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>187.3363921669441</v>
+      </c>
+      <c r="D8">
+        <v>131.4769496569343</v>
+      </c>
+      <c r="E8">
+        <v>0.2389131106207933</v>
+      </c>
+      <c r="F8">
+        <v>0.7610868893792067</v>
+      </c>
+      <c r="G8">
+        <v>16127</v>
+      </c>
+      <c r="H8">
+        <v>6913</v>
+      </c>
+      <c r="I8">
+        <v>23040</v>
+      </c>
+      <c r="J8">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>100</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>12.22222956552394</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>101.7781079363013</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>0.1522222815746567</v>
       </c>
-      <c r="F6">
+      <c r="F9">
         <v>0.8477777184253432</v>
       </c>
-      <c r="G6">
-        <v>23040</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>23040</v>
-      </c>
-      <c r="J6">
+      <c r="G9">
+        <v>23040</v>
+      </c>
+      <c r="I9">
+        <v>23040</v>
+      </c>
+      <c r="J9">
         <v>10080</v>
       </c>
     </row>

--- a/fold_results_summary.xlsx
+++ b/fold_results_summary.xlsx
@@ -1333,7 +1333,7 @@
         <v>100</v>
       </c>
       <c r="D26">
-        <v>12.68489768995459</v>
+        <v>160.9066294046154</v>
       </c>
       <c r="E26">
         <v>105.307190303411</v>
@@ -1365,7 +1365,7 @@
         <v>100</v>
       </c>
       <c r="D27">
-        <v>10.87840576763496</v>
+        <v>118.3397120453136</v>
       </c>
       <c r="E27">
         <v>69.85539215384624</v>
@@ -1397,7 +1397,7 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>8.341600371329651</v>
+        <v>69.58229675496696</v>
       </c>
       <c r="E28">
         <v>35.05447880916248</v>
@@ -1429,7 +1429,7 @@
         <v>100</v>
       </c>
       <c r="D29">
-        <v>9.817741163946261</v>
+        <v>96.38804156224488</v>
       </c>
       <c r="E29">
         <v>61.09344669583726</v>
@@ -1461,7 +1461,7 @@
         <v>100</v>
       </c>
       <c r="D30">
-        <v>10.8052142673751</v>
+        <v>116.7526553638864</v>
       </c>
       <c r="E30">
         <v>83.54281849151381</v>
@@ -1493,7 +1493,7 @@
         <v>100</v>
       </c>
       <c r="D31">
-        <v>11.75575692652024</v>
+        <v>138.1978209154286</v>
       </c>
       <c r="E31">
         <v>88.06124133130626</v>
@@ -1525,7 +1525,7 @@
         <v>100</v>
       </c>
       <c r="D32">
-        <v>11.17706527684903</v>
+        <v>124.9267882029444</v>
       </c>
       <c r="E32">
         <v>81.86486654026949</v>
@@ -1557,7 +1557,7 @@
         <v>100</v>
       </c>
       <c r="D33">
-        <v>11.99064018064797</v>
+        <v>143.7754519417696</v>
       </c>
       <c r="E33">
         <v>94.23528650606882</v>
@@ -1589,7 +1589,7 @@
         <v>100</v>
       </c>
       <c r="D34">
-        <v>13.77319722894456</v>
+        <v>189.7009619074061</v>
       </c>
       <c r="E34">
         <v>126.09149641464</v>
@@ -1621,7 +1621,7 @@
         <v>100</v>
       </c>
       <c r="D35">
-        <v>10.5285122021371</v>
+        <v>110.8495691905499</v>
       </c>
       <c r="E35">
         <v>67.35229276501281</v>
@@ -1653,7 +1653,7 @@
         <v>100</v>
       </c>
       <c r="D36">
-        <v>8.594041769557537</v>
+        <v>73.85755393689963</v>
       </c>
       <c r="E36">
         <v>31.24635713486203</v>
@@ -1685,7 +1685,7 @@
         <v>100</v>
       </c>
       <c r="D37">
-        <v>11.95404377330671</v>
+        <v>142.8991625341329</v>
       </c>
       <c r="E37">
         <v>95.70353293095316</v>
@@ -1717,7 +1717,7 @@
         <v>100</v>
       </c>
       <c r="D38">
-        <v>12.14370026324965</v>
+        <v>147.4694560836497</v>
       </c>
       <c r="E38">
         <v>123.1529379099588</v>
@@ -1749,7 +1749,7 @@
         <v>100</v>
       </c>
       <c r="D39">
-        <v>13.51457331597118</v>
+        <v>182.6436919127601</v>
       </c>
       <c r="E39">
         <v>103.5159333826014</v>
@@ -1781,7 +1781,7 @@
         <v>100</v>
       </c>
       <c r="D40">
-        <v>14.11032631673462</v>
+        <v>199.1013087647337</v>
       </c>
       <c r="E40">
         <v>145.1641294847827</v>
@@ -1813,7 +1813,7 @@
         <v>100</v>
       </c>
       <c r="D41">
-        <v>13.15944165429019</v>
+        <v>173.1709046526677</v>
       </c>
       <c r="E41">
         <v>121.9981834675996</v>
@@ -2823,7 +2823,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>10.93141520553223</v>
+        <v>121.1086745238962</v>
       </c>
       <c r="D5">
         <v>77.37684010392692</v>
@@ -2948,7 +2948,7 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>12.22222956552394</v>
+        <v>152.4615761228499</v>
       </c>
       <c r="D9">
         <v>101.7781079363013</v>

--- a/fold_results_summary.xlsx
+++ b/fold_results_summary.xlsx
@@ -493,16 +493,16 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>245.647306949347</v>
+        <v>245.65</v>
       </c>
       <c r="E2">
-        <v>177.6097958904161</v>
+        <v>177.61</v>
       </c>
       <c r="F2">
-        <v>0.2788380847937439</v>
+        <v>0.28</v>
       </c>
       <c r="G2">
-        <v>0.7211619152062561</v>
+        <v>0.72</v>
       </c>
       <c r="H2">
         <v>2304</v>
@@ -528,16 +528,16 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>200.4556758750571</v>
+        <v>200.46</v>
       </c>
       <c r="E3">
-        <v>150.1267142385623</v>
+        <v>150.13</v>
       </c>
       <c r="F3">
-        <v>0.4344484037222018</v>
+        <v>0.43</v>
       </c>
       <c r="G3">
-        <v>0.5655515962777982</v>
+        <v>0.57</v>
       </c>
       <c r="H3">
         <v>2304</v>
@@ -563,16 +563,16 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>121.7213096799516</v>
+        <v>121.72</v>
       </c>
       <c r="E4">
-        <v>78.79943260949032</v>
+        <v>78.8</v>
       </c>
       <c r="F4">
-        <v>0.2003690319101258</v>
+        <v>0.2</v>
       </c>
       <c r="G4">
-        <v>0.7996309680898742</v>
+        <v>0.8</v>
       </c>
       <c r="H4">
         <v>2304</v>
@@ -598,16 +598,16 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>155.6545819957789</v>
+        <v>155.65</v>
       </c>
       <c r="E5">
-        <v>110.8491604936528</v>
+        <v>110.85</v>
       </c>
       <c r="F5">
-        <v>0.0970192618706999</v>
+        <v>0.1</v>
       </c>
       <c r="G5">
-        <v>0.9029807381293</v>
+        <v>0.9</v>
       </c>
       <c r="H5">
         <v>2304</v>
@@ -633,16 +633,16 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>220.7240721575332</v>
+        <v>220.72</v>
       </c>
       <c r="E6">
-        <v>163.2345395919847</v>
+        <v>163.23</v>
       </c>
       <c r="F6">
-        <v>0.25371528212465</v>
+        <v>0.25</v>
       </c>
       <c r="G6">
-        <v>0.74628471787535</v>
+        <v>0.75</v>
       </c>
       <c r="H6">
         <v>2304</v>
@@ -668,16 +668,16 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>225.8639232161518</v>
+        <v>225.86</v>
       </c>
       <c r="E7">
-        <v>155.2977053280673</v>
+        <v>155.3</v>
       </c>
       <c r="F7">
-        <v>0.3309978073061572</v>
+        <v>0.33</v>
       </c>
       <c r="G7">
-        <v>0.6690021926938428</v>
+        <v>0.67</v>
       </c>
       <c r="H7">
         <v>2304</v>
@@ -703,16 +703,16 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>204.0240827009881</v>
+        <v>204.02</v>
       </c>
       <c r="E8">
-        <v>142.0268163582226</v>
+        <v>142.03</v>
       </c>
       <c r="F8">
-        <v>0.2210963603389508</v>
+        <v>0.22</v>
       </c>
       <c r="G8">
-        <v>0.7789036396610491</v>
+        <v>0.78</v>
       </c>
       <c r="H8">
         <v>2304</v>
@@ -738,16 +738,16 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>207.8124407584443</v>
+        <v>207.81</v>
       </c>
       <c r="E9">
-        <v>148.5738541491386</v>
+        <v>148.57</v>
       </c>
       <c r="F9">
-        <v>0.3209174303852432</v>
+        <v>0.32</v>
       </c>
       <c r="G9">
-        <v>0.6790825696147569</v>
+        <v>0.68</v>
       </c>
       <c r="H9">
         <v>2304</v>
@@ -773,16 +773,16 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>229.057801265284</v>
+        <v>229.06</v>
       </c>
       <c r="E10">
-        <v>163.7581137149807</v>
+        <v>163.76</v>
       </c>
       <c r="F10">
-        <v>0.2424478022798838</v>
+        <v>0.24</v>
       </c>
       <c r="G10">
-        <v>0.7575521977201161</v>
+        <v>0.76</v>
       </c>
       <c r="H10">
         <v>4608</v>
@@ -808,16 +808,16 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>193.3721750401016</v>
+        <v>193.37</v>
       </c>
       <c r="E11">
-        <v>142.6627254310017</v>
+        <v>142.66</v>
       </c>
       <c r="F11">
-        <v>0.4042867002945852</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>0.5957132997054149</v>
+        <v>0.6</v>
       </c>
       <c r="H11">
         <v>4608</v>
@@ -843,16 +843,16 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <v>112.2946511489782</v>
+        <v>112.29</v>
       </c>
       <c r="E12">
-        <v>70.23346320701376</v>
+        <v>70.23</v>
       </c>
       <c r="F12">
-        <v>0.1705357782081961</v>
+        <v>0.17</v>
       </c>
       <c r="G12">
-        <v>0.8294642217918039</v>
+        <v>0.83</v>
       </c>
       <c r="H12">
         <v>4608</v>
@@ -878,16 +878,16 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>154.47335000966</v>
+        <v>154.47</v>
       </c>
       <c r="E13">
-        <v>107.9842369347155</v>
+        <v>107.98</v>
       </c>
       <c r="F13">
-        <v>0.095552329038429</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
-        <v>0.904447670961571</v>
+        <v>0.9</v>
       </c>
       <c r="H13">
         <v>4608</v>
@@ -913,16 +913,16 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>220.376382383704</v>
+        <v>220.38</v>
       </c>
       <c r="E14">
-        <v>163.3705852593917</v>
+        <v>163.37</v>
       </c>
       <c r="F14">
-        <v>0.2529165950612582</v>
+        <v>0.25</v>
       </c>
       <c r="G14">
-        <v>0.7470834049387418</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>4608</v>
@@ -948,16 +948,16 @@
         <v>20</v>
       </c>
       <c r="D15">
-        <v>210.49350260892</v>
+        <v>210.49</v>
       </c>
       <c r="E15">
-        <v>140.9779502134942</v>
+        <v>140.98</v>
       </c>
       <c r="F15">
-        <v>0.2874807515098024</v>
+        <v>0.29</v>
       </c>
       <c r="G15">
-        <v>0.7125192484901977</v>
+        <v>0.71</v>
       </c>
       <c r="H15">
         <v>4608</v>
@@ -983,16 +983,16 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>209.8549660425864</v>
+        <v>209.85</v>
       </c>
       <c r="E16">
-        <v>150.6727980651477</v>
+        <v>150.67</v>
       </c>
       <c r="F16">
-        <v>0.2339145448961048</v>
+        <v>0.23</v>
       </c>
       <c r="G16">
-        <v>0.7660854551038951</v>
+        <v>0.77</v>
       </c>
       <c r="H16">
         <v>4608</v>
@@ -1018,16 +1018,16 @@
         <v>20</v>
       </c>
       <c r="D17">
-        <v>204.6085889044909</v>
+        <v>204.61</v>
       </c>
       <c r="E17">
-        <v>146.531378268875</v>
+        <v>146.53</v>
       </c>
       <c r="F17">
-        <v>0.3110985165703028</v>
+        <v>0.31</v>
       </c>
       <c r="G17">
-        <v>0.6889014834296971</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H17">
         <v>4608</v>
@@ -1053,16 +1053,16 @@
         <v>70</v>
       </c>
       <c r="D18">
-        <v>223.6833379799072</v>
+        <v>223.68</v>
       </c>
       <c r="E18">
-        <v>157.7940385057804</v>
+        <v>157.79</v>
       </c>
       <c r="F18">
-        <v>0.2312040016496335</v>
+        <v>0.23</v>
       </c>
       <c r="G18">
-        <v>0.7687959983503665</v>
+        <v>0.77</v>
       </c>
       <c r="H18">
         <v>16127</v>
@@ -1088,16 +1088,16 @@
         <v>70</v>
       </c>
       <c r="D19">
-        <v>188.2712300533394</v>
+        <v>188.27</v>
       </c>
       <c r="E19">
-        <v>134.4472055359189</v>
+        <v>134.45</v>
       </c>
       <c r="F19">
-        <v>0.3832387459943159</v>
+        <v>0.38</v>
       </c>
       <c r="G19">
-        <v>0.616761254005684</v>
+        <v>0.62</v>
       </c>
       <c r="H19">
         <v>16127</v>
@@ -1123,16 +1123,16 @@
         <v>70</v>
       </c>
       <c r="D20">
-        <v>111.0873361281804</v>
+        <v>111.09</v>
       </c>
       <c r="E20">
-        <v>70.05548646639892</v>
+        <v>70.06</v>
       </c>
       <c r="F20">
-        <v>0.1668885232704993</v>
+        <v>0.17</v>
       </c>
       <c r="G20">
-        <v>0.8331114767295007</v>
+        <v>0.83</v>
       </c>
       <c r="H20">
         <v>16127</v>
@@ -1158,16 +1158,16 @@
         <v>70</v>
       </c>
       <c r="D21">
-        <v>147.2461874041062</v>
+        <v>147.25</v>
       </c>
       <c r="E21">
-        <v>102.9270525336348</v>
+        <v>102.93</v>
       </c>
       <c r="F21">
-        <v>0.0868204963319015</v>
+        <v>0.09</v>
       </c>
       <c r="G21">
-        <v>0.9131795036680984</v>
+        <v>0.91</v>
       </c>
       <c r="H21">
         <v>16127</v>
@@ -1193,16 +1193,16 @@
         <v>70</v>
       </c>
       <c r="D22">
-        <v>221.7754543181105</v>
+        <v>221.78</v>
       </c>
       <c r="E22">
-        <v>163.907250371653</v>
+        <v>163.91</v>
       </c>
       <c r="F22">
-        <v>0.2561380992868996</v>
+        <v>0.26</v>
       </c>
       <c r="G22">
-        <v>0.7438619007131004</v>
+        <v>0.74</v>
       </c>
       <c r="H22">
         <v>16127</v>
@@ -1228,16 +1228,16 @@
         <v>70</v>
       </c>
       <c r="D23">
-        <v>204.1138721948466</v>
+        <v>204.11</v>
       </c>
       <c r="E23">
-        <v>134.457789641877</v>
+        <v>134.46</v>
       </c>
       <c r="F23">
-        <v>0.2703189085168327</v>
+        <v>0.27</v>
       </c>
       <c r="G23">
-        <v>0.7296810914831673</v>
+        <v>0.73</v>
       </c>
       <c r="H23">
         <v>16127</v>
@@ -1263,16 +1263,16 @@
         <v>70</v>
       </c>
       <c r="D24">
-        <v>200.5987786574912</v>
+        <v>200.6</v>
       </c>
       <c r="E24">
-        <v>144.4646948660569</v>
+        <v>144.46</v>
       </c>
       <c r="F24">
-        <v>0.2137348272307201</v>
+        <v>0.21</v>
       </c>
       <c r="G24">
-        <v>0.7862651727692799</v>
+        <v>0.79</v>
       </c>
       <c r="H24">
         <v>16127</v>
@@ -1298,16 +1298,16 @@
         <v>70</v>
       </c>
       <c r="D25">
-        <v>201.9149405995715</v>
+        <v>201.91</v>
       </c>
       <c r="E25">
-        <v>143.7620793341542</v>
+        <v>143.76</v>
       </c>
       <c r="F25">
-        <v>0.3029612826855435</v>
+        <v>0.3</v>
       </c>
       <c r="G25">
-        <v>0.6970387173144564</v>
+        <v>0.7</v>
       </c>
       <c r="H25">
         <v>16127</v>
@@ -1333,16 +1333,16 @@
         <v>100</v>
       </c>
       <c r="D26">
-        <v>160.9066294046154</v>
+        <v>160.91</v>
       </c>
       <c r="E26">
-        <v>105.307190303411</v>
+        <v>105.31</v>
       </c>
       <c r="F26">
-        <v>0.1196398752749519</v>
+        <v>0.12</v>
       </c>
       <c r="G26">
-        <v>0.8803601247250481</v>
+        <v>0.88</v>
       </c>
       <c r="H26">
         <v>23040</v>
@@ -1365,16 +1365,16 @@
         <v>100</v>
       </c>
       <c r="D27">
-        <v>118.3397120453136</v>
+        <v>118.34</v>
       </c>
       <c r="E27">
-        <v>69.85539215384624</v>
+        <v>69.86</v>
       </c>
       <c r="F27">
-        <v>0.1514127707115647</v>
+        <v>0.15</v>
       </c>
       <c r="G27">
-        <v>0.8485872292884353</v>
+        <v>0.85</v>
       </c>
       <c r="H27">
         <v>23040</v>
@@ -1397,16 +1397,16 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>69.58229675496696</v>
+        <v>69.58</v>
       </c>
       <c r="E28">
-        <v>35.05447880916248</v>
+        <v>35.05</v>
       </c>
       <c r="F28">
-        <v>0.0654779216925775</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G28">
-        <v>0.9345220783074224</v>
+        <v>0.93</v>
       </c>
       <c r="H28">
         <v>23040</v>
@@ -1429,16 +1429,16 @@
         <v>100</v>
       </c>
       <c r="D29">
-        <v>96.38804156224488</v>
+        <v>96.39</v>
       </c>
       <c r="E29">
-        <v>61.09344669583726</v>
+        <v>61.09</v>
       </c>
       <c r="F29">
-        <v>0.0372032139374152</v>
+        <v>0.04</v>
       </c>
       <c r="G29">
-        <v>0.9627967860625848</v>
+        <v>0.96</v>
       </c>
       <c r="H29">
         <v>23040</v>
@@ -1461,16 +1461,16 @@
         <v>100</v>
       </c>
       <c r="D30">
-        <v>116.7526553638864</v>
+        <v>116.75</v>
       </c>
       <c r="E30">
-        <v>83.54281849151381</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="F30">
-        <v>0.0709873167715573</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G30">
-        <v>0.9290126832284428</v>
+        <v>0.93</v>
       </c>
       <c r="H30">
         <v>23040</v>
@@ -1493,16 +1493,16 @@
         <v>100</v>
       </c>
       <c r="D31">
-        <v>138.1978209154286</v>
+        <v>138.2</v>
       </c>
       <c r="E31">
-        <v>88.06124133130626</v>
+        <v>88.06</v>
       </c>
       <c r="F31">
-        <v>0.1239178221800217</v>
+        <v>0.12</v>
       </c>
       <c r="G31">
-        <v>0.8760821778199783</v>
+        <v>0.88</v>
       </c>
       <c r="H31">
         <v>23040</v>
@@ -1525,16 +1525,16 @@
         <v>100</v>
       </c>
       <c r="D32">
-        <v>124.9267882029444</v>
+        <v>124.93</v>
       </c>
       <c r="E32">
-        <v>81.86486654026949</v>
+        <v>81.86</v>
       </c>
       <c r="F32">
-        <v>0.0828952937344483</v>
+        <v>0.08</v>
       </c>
       <c r="G32">
-        <v>0.9171047062655516</v>
+        <v>0.92</v>
       </c>
       <c r="H32">
         <v>23040</v>
@@ -1557,16 +1557,16 @@
         <v>100</v>
       </c>
       <c r="D33">
-        <v>143.7754519417696</v>
+        <v>143.78</v>
       </c>
       <c r="E33">
-        <v>94.23528650606882</v>
+        <v>94.23999999999999</v>
       </c>
       <c r="F33">
-        <v>0.1536100754981583</v>
+        <v>0.15</v>
       </c>
       <c r="G33">
-        <v>0.8463899245018417</v>
+        <v>0.85</v>
       </c>
       <c r="H33">
         <v>23040</v>
@@ -1589,16 +1589,16 @@
         <v>100</v>
       </c>
       <c r="D34">
-        <v>189.7009619074061</v>
+        <v>189.7</v>
       </c>
       <c r="E34">
-        <v>126.09149641464</v>
+        <v>126.09</v>
       </c>
       <c r="F34">
-        <v>0.1662903864641238</v>
+        <v>0.17</v>
       </c>
       <c r="G34">
-        <v>0.8337096135358761</v>
+        <v>0.83</v>
       </c>
       <c r="H34">
         <v>23040</v>
@@ -1621,16 +1621,16 @@
         <v>100</v>
       </c>
       <c r="D35">
-        <v>110.8495691905499</v>
+        <v>110.85</v>
       </c>
       <c r="E35">
-        <v>67.35229276501281</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="F35">
-        <v>0.1328524321591344</v>
+        <v>0.13</v>
       </c>
       <c r="G35">
-        <v>0.8671475678408656</v>
+        <v>0.87</v>
       </c>
       <c r="H35">
         <v>23040</v>
@@ -1653,16 +1653,16 @@
         <v>100</v>
       </c>
       <c r="D36">
-        <v>73.85755393689963</v>
+        <v>73.86</v>
       </c>
       <c r="E36">
-        <v>31.24635713486203</v>
+        <v>31.25</v>
       </c>
       <c r="F36">
-        <v>0.073771261044119</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G36">
-        <v>0.9262287389558808</v>
+        <v>0.93</v>
       </c>
       <c r="H36">
         <v>23040</v>
@@ -1685,16 +1685,16 @@
         <v>100</v>
       </c>
       <c r="D37">
-        <v>142.8991625341329</v>
+        <v>142.9</v>
       </c>
       <c r="E37">
-        <v>95.70353293095316</v>
+        <v>95.7</v>
       </c>
       <c r="F37">
-        <v>0.08176990898161041</v>
+        <v>0.08</v>
       </c>
       <c r="G37">
-        <v>0.9182300910183896</v>
+        <v>0.92</v>
       </c>
       <c r="H37">
         <v>23040</v>
@@ -1717,16 +1717,16 @@
         <v>100</v>
       </c>
       <c r="D38">
-        <v>147.4694560836497</v>
+        <v>147.47</v>
       </c>
       <c r="E38">
-        <v>123.1529379099588</v>
+        <v>123.15</v>
       </c>
       <c r="F38">
-        <v>0.1132534352600608</v>
+        <v>0.11</v>
       </c>
       <c r="G38">
-        <v>0.8867465647399392</v>
+        <v>0.89</v>
       </c>
       <c r="H38">
         <v>23040</v>
@@ -1749,16 +1749,16 @@
         <v>100</v>
       </c>
       <c r="D39">
-        <v>182.6436919127601</v>
+        <v>182.64</v>
       </c>
       <c r="E39">
-        <v>103.5159333826014</v>
+        <v>103.52</v>
       </c>
       <c r="F39">
-        <v>0.2164416003481135</v>
+        <v>0.22</v>
       </c>
       <c r="G39">
-        <v>0.7835583996518865</v>
+        <v>0.78</v>
       </c>
       <c r="H39">
         <v>23040</v>
@@ -1781,16 +1781,16 @@
         <v>100</v>
       </c>
       <c r="D40">
-        <v>199.1013087647337</v>
+        <v>199.1</v>
       </c>
       <c r="E40">
-        <v>145.1641294847827</v>
+        <v>145.16</v>
       </c>
       <c r="F40">
-        <v>0.2105556768739195</v>
+        <v>0.21</v>
       </c>
       <c r="G40">
-        <v>0.7894443231260805</v>
+        <v>0.79</v>
       </c>
       <c r="H40">
         <v>23040</v>
@@ -1813,16 +1813,16 @@
         <v>100</v>
       </c>
       <c r="D41">
-        <v>173.1709046526677</v>
+        <v>173.17</v>
       </c>
       <c r="E41">
-        <v>121.9981834675996</v>
+        <v>122</v>
       </c>
       <c r="F41">
-        <v>0.2228435514661723</v>
+        <v>0.22</v>
       </c>
       <c r="G41">
-        <v>0.7771564485338277</v>
+        <v>0.78</v>
       </c>
       <c r="H41">
         <v>23040</v>
@@ -1845,16 +1845,16 @@
         <v>10</v>
       </c>
       <c r="D42">
-        <v>176.4141</v>
+        <v>176.41</v>
       </c>
       <c r="E42">
-        <v>115.5601</v>
+        <v>115.56</v>
       </c>
       <c r="F42">
-        <v>0.1438118611656311</v>
+        <v>0.14</v>
       </c>
       <c r="G42">
-        <v>0.85694</v>
+        <v>0.86</v>
       </c>
       <c r="H42">
         <v>2304</v>
@@ -1880,16 +1880,16 @@
         <v>20</v>
       </c>
       <c r="D43">
-        <v>167.2953</v>
+        <v>167.3</v>
       </c>
       <c r="E43">
-        <v>111.0151</v>
+        <v>111.02</v>
       </c>
       <c r="F43">
-        <v>0.1293288204363382</v>
+        <v>0.13</v>
       </c>
       <c r="G43">
-        <v>0.87344</v>
+        <v>0.87</v>
       </c>
       <c r="H43">
         <v>4608</v>
@@ -1915,16 +1915,16 @@
         <v>70</v>
       </c>
       <c r="D44">
-        <v>173.0206</v>
+        <v>173.02</v>
       </c>
       <c r="E44">
-        <v>115.6944</v>
+        <v>115.69</v>
       </c>
       <c r="F44">
-        <v>0.1383322558303769</v>
+        <v>0.14</v>
       </c>
       <c r="G44">
-        <v>0.8633999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="H44">
         <v>16127</v>
@@ -1950,16 +1950,16 @@
         <v>10</v>
       </c>
       <c r="D45">
-        <v>167.5391</v>
+        <v>167.54</v>
       </c>
       <c r="E45">
-        <v>135.3917</v>
+        <v>135.39</v>
       </c>
       <c r="F45">
-        <v>0.3034827345129788</v>
+        <v>0.3</v>
       </c>
       <c r="G45">
-        <v>0.79066</v>
+        <v>0.79</v>
       </c>
       <c r="H45">
         <v>2304</v>
@@ -1985,16 +1985,16 @@
         <v>20</v>
       </c>
       <c r="D46">
-        <v>113.3384</v>
+        <v>113.34</v>
       </c>
       <c r="E46">
-        <v>67.20059999999999</v>
+        <v>67.2</v>
       </c>
       <c r="F46">
-        <v>0.1388851127347324</v>
+        <v>0.14</v>
       </c>
       <c r="G46">
-        <v>0.86436</v>
+        <v>0.86</v>
       </c>
       <c r="H46">
         <v>4608</v>
@@ -2020,16 +2020,16 @@
         <v>70</v>
       </c>
       <c r="D47">
-        <v>129.8783</v>
+        <v>129.88</v>
       </c>
       <c r="E47">
-        <v>95.7851</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="F47">
-        <v>0.1823788345777294</v>
+        <v>0.18</v>
       </c>
       <c r="G47">
-        <v>0.84313</v>
+        <v>0.84</v>
       </c>
       <c r="H47">
         <v>16127</v>
@@ -2055,16 +2055,16 @@
         <v>10</v>
       </c>
       <c r="D48">
-        <v>68.3886</v>
+        <v>68.39</v>
       </c>
       <c r="E48">
-        <v>29.2707</v>
+        <v>29.27</v>
       </c>
       <c r="F48">
-        <v>0.06325067945775405</v>
+        <v>0.06</v>
       </c>
       <c r="G48">
-        <v>0.93681</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H48">
         <v>2304</v>
@@ -2090,16 +2090,16 @@
         <v>20</v>
       </c>
       <c r="D49">
-        <v>66.7204</v>
+        <v>66.72</v>
       </c>
       <c r="E49">
-        <v>28.2318</v>
+        <v>28.23</v>
       </c>
       <c r="F49">
-        <v>0.06020249939292067</v>
+        <v>0.06</v>
       </c>
       <c r="G49">
-        <v>0.94026</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H49">
         <v>4608</v>
@@ -2125,16 +2125,16 @@
         <v>70</v>
       </c>
       <c r="D50">
-        <v>67.2094</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="E50">
-        <v>36.7095</v>
+        <v>36.71</v>
       </c>
       <c r="F50">
-        <v>0.06108825946103634</v>
+        <v>0.06</v>
       </c>
       <c r="G50">
-        <v>0.9414400000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H50">
         <v>16127</v>
@@ -2160,16 +2160,16 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <v>100.5684</v>
+        <v>100.57</v>
       </c>
       <c r="E51">
-        <v>70.31189999999999</v>
+        <v>70.31</v>
       </c>
       <c r="F51">
-        <v>0.04050020889148493</v>
+        <v>0.04</v>
       </c>
       <c r="G51">
-        <v>0.96436</v>
+        <v>0.96</v>
       </c>
       <c r="H51">
         <v>2304</v>
@@ -2195,16 +2195,16 @@
         <v>20</v>
       </c>
       <c r="D52">
-        <v>101.5896</v>
+        <v>101.59</v>
       </c>
       <c r="E52">
-        <v>65.1279</v>
+        <v>65.13</v>
       </c>
       <c r="F52">
-        <v>0.04132690698521353</v>
+        <v>0.04</v>
       </c>
       <c r="G52">
-        <v>0.9605399999999999</v>
+        <v>0.96</v>
       </c>
       <c r="H52">
         <v>4608</v>
@@ -2230,16 +2230,16 @@
         <v>70</v>
       </c>
       <c r="D53">
-        <v>95.3095</v>
+        <v>95.31</v>
       </c>
       <c r="E53">
-        <v>66.44410000000001</v>
+        <v>66.44</v>
       </c>
       <c r="F53">
-        <v>0.03637525903477418</v>
+        <v>0.04</v>
       </c>
       <c r="G53">
-        <v>0.96696</v>
+        <v>0.97</v>
       </c>
       <c r="H53">
         <v>16127</v>
@@ -2265,16 +2265,16 @@
         <v>10</v>
       </c>
       <c r="D54">
-        <v>113.4085</v>
+        <v>113.41</v>
       </c>
       <c r="E54">
-        <v>80.08320000000001</v>
+        <v>80.08</v>
       </c>
       <c r="F54">
-        <v>0.06697896259845447</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G54">
-        <v>0.93685</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H54">
         <v>2304</v>
@@ -2300,16 +2300,16 @@
         <v>20</v>
       </c>
       <c r="D55">
-        <v>111.3128</v>
+        <v>111.31</v>
       </c>
       <c r="E55">
-        <v>82.7646</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="F55">
-        <v>0.06452634750371386</v>
+        <v>0.06</v>
       </c>
       <c r="G55">
-        <v>0.93897</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H55">
         <v>4608</v>
@@ -2335,16 +2335,16 @@
         <v>70</v>
       </c>
       <c r="D56">
-        <v>118.3466</v>
+        <v>118.35</v>
       </c>
       <c r="E56">
-        <v>91.7615</v>
+        <v>91.76000000000001</v>
       </c>
       <c r="F56">
-        <v>0.07293882627473082</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G56">
-        <v>0.93487</v>
+        <v>0.93</v>
       </c>
       <c r="H56">
         <v>16127</v>
@@ -2370,16 +2370,16 @@
         <v>10</v>
       </c>
       <c r="D57">
-        <v>150.1851</v>
+        <v>150.19</v>
       </c>
       <c r="E57">
-        <v>90.21559999999999</v>
+        <v>90.22</v>
       </c>
       <c r="F57">
-        <v>0.1463474788399562</v>
+        <v>0.15</v>
       </c>
       <c r="G57">
-        <v>0.85563</v>
+        <v>0.86</v>
       </c>
       <c r="H57">
         <v>2304</v>
@@ -2405,16 +2405,16 @@
         <v>20</v>
       </c>
       <c r="D58">
-        <v>155.7375</v>
+        <v>155.74</v>
       </c>
       <c r="E58">
-        <v>99.0474</v>
+        <v>99.05</v>
       </c>
       <c r="F58">
-        <v>0.1573685597542633</v>
+        <v>0.16</v>
       </c>
       <c r="G58">
-        <v>0.84695</v>
+        <v>0.85</v>
       </c>
       <c r="H58">
         <v>4608</v>
@@ -2440,16 +2440,16 @@
         <v>70</v>
       </c>
       <c r="D59">
-        <v>156.9594</v>
+        <v>156.96</v>
       </c>
       <c r="E59">
-        <v>102.3322</v>
+        <v>102.33</v>
       </c>
       <c r="F59">
-        <v>0.159847489071686</v>
+        <v>0.16</v>
       </c>
       <c r="G59">
-        <v>0.84734</v>
+        <v>0.85</v>
       </c>
       <c r="H59">
         <v>16127</v>
@@ -2475,16 +2475,16 @@
         <v>10</v>
       </c>
       <c r="D60">
-        <v>149.6158</v>
+        <v>149.62</v>
       </c>
       <c r="E60">
-        <v>103.3055</v>
+        <v>103.31</v>
       </c>
       <c r="F60">
-        <v>0.1188976977721585</v>
+        <v>0.12</v>
       </c>
       <c r="G60">
-        <v>0.88911</v>
+        <v>0.89</v>
       </c>
       <c r="H60">
         <v>2304</v>
@@ -2510,16 +2510,16 @@
         <v>20</v>
       </c>
       <c r="D61">
-        <v>138.6226</v>
+        <v>138.62</v>
       </c>
       <c r="E61">
-        <v>94.8548</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="F61">
-        <v>0.1020674042059635</v>
+        <v>0.1</v>
       </c>
       <c r="G61">
-        <v>0.90699</v>
+        <v>0.91</v>
       </c>
       <c r="H61">
         <v>4608</v>
@@ -2545,16 +2545,16 @@
         <v>70</v>
       </c>
       <c r="D62">
-        <v>140.0072</v>
+        <v>140.01</v>
       </c>
       <c r="E62">
-        <v>93.0985</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F62">
-        <v>0.1041164280419637</v>
+        <v>0.1</v>
       </c>
       <c r="G62">
-        <v>0.90728</v>
+        <v>0.91</v>
       </c>
       <c r="H62">
         <v>16127</v>
@@ -2580,16 +2580,16 @@
         <v>10</v>
       </c>
       <c r="D63">
-        <v>155.3245</v>
+        <v>155.32</v>
       </c>
       <c r="E63">
-        <v>103.1245</v>
+        <v>103.12</v>
       </c>
       <c r="F63">
-        <v>0.179279372855069</v>
+        <v>0.18</v>
       </c>
       <c r="G63">
-        <v>0.82569</v>
+        <v>0.83</v>
       </c>
       <c r="H63">
         <v>2304</v>
@@ -2615,16 +2615,16 @@
         <v>20</v>
       </c>
       <c r="D64">
-        <v>154.005</v>
+        <v>154</v>
       </c>
       <c r="E64">
-        <v>107.1116</v>
+        <v>107.11</v>
       </c>
       <c r="F64">
-        <v>0.1762461678506646</v>
+        <v>0.18</v>
       </c>
       <c r="G64">
-        <v>0.8293199999999999</v>
+        <v>0.83</v>
       </c>
       <c r="H64">
         <v>4608</v>
@@ -2650,16 +2650,16 @@
         <v>70</v>
       </c>
       <c r="D65">
-        <v>159.9491</v>
+        <v>159.95</v>
       </c>
       <c r="E65">
-        <v>118.6083</v>
+        <v>118.61</v>
       </c>
       <c r="F65">
-        <v>0.1901138757848036</v>
+        <v>0.19</v>
       </c>
       <c r="G65">
-        <v>0.82551</v>
+        <v>0.83</v>
       </c>
       <c r="H65">
         <v>16127</v>
@@ -2727,16 +2727,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>135.1805125</v>
+        <v>135.18</v>
       </c>
       <c r="D2">
-        <v>90.9079</v>
+        <v>90.91</v>
       </c>
       <c r="E2">
-        <v>0.1328186245116859</v>
+        <v>0.13</v>
       </c>
       <c r="F2">
-        <v>0.88200625</v>
+        <v>0.88</v>
       </c>
       <c r="G2">
         <v>2304</v>
@@ -2759,16 +2759,16 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>126.0777</v>
+        <v>126.08</v>
       </c>
       <c r="D3">
-        <v>81.919225</v>
+        <v>81.92</v>
       </c>
       <c r="E3">
-        <v>0.1087439773579763</v>
+        <v>0.11</v>
       </c>
       <c r="F3">
-        <v>0.89510375</v>
+        <v>0.9</v>
       </c>
       <c r="G3">
         <v>4608</v>
@@ -2791,16 +2791,16 @@
         <v>70</v>
       </c>
       <c r="C4">
-        <v>130.0850125</v>
+        <v>130.09</v>
       </c>
       <c r="D4">
-        <v>90.05420000000001</v>
+        <v>90.05</v>
       </c>
       <c r="E4">
-        <v>0.1181489035096376</v>
+        <v>0.12</v>
       </c>
       <c r="F4">
-        <v>0.89124125</v>
+        <v>0.89</v>
       </c>
       <c r="G4">
         <v>16127</v>
@@ -2823,16 +2823,16 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>121.1086745238962</v>
+        <v>121.11</v>
       </c>
       <c r="D5">
-        <v>77.37684010392692</v>
+        <v>77.38</v>
       </c>
       <c r="E5">
-        <v>0.1006430362250869</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
-        <v>0.8993569637749131</v>
+        <v>0.9</v>
       </c>
       <c r="G5">
         <v>23040</v>
@@ -2852,16 +2852,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>197.7379241666565</v>
+        <v>197.74</v>
       </c>
       <c r="D6">
-        <v>140.8147523324418</v>
+        <v>140.82</v>
       </c>
       <c r="E6">
-        <v>0.2671752078064716</v>
+        <v>0.27</v>
       </c>
       <c r="F6">
-        <v>0.7328247921935284</v>
+        <v>0.73</v>
       </c>
       <c r="G6">
         <v>2304</v>
@@ -2884,16 +2884,16 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>191.8164271754656</v>
+        <v>191.82</v>
       </c>
       <c r="D7">
-        <v>135.7739063868275</v>
+        <v>135.77</v>
       </c>
       <c r="E7">
-        <v>0.2497791272323203</v>
+        <v>0.25</v>
       </c>
       <c r="F7">
-        <v>0.7502208727676797</v>
+        <v>0.75</v>
       </c>
       <c r="G7">
         <v>4608</v>
@@ -2916,16 +2916,16 @@
         <v>70</v>
       </c>
       <c r="C8">
-        <v>187.3363921669441</v>
+        <v>187.34</v>
       </c>
       <c r="D8">
-        <v>131.4769496569343</v>
+        <v>131.48</v>
       </c>
       <c r="E8">
-        <v>0.2389131106207933</v>
+        <v>0.24</v>
       </c>
       <c r="F8">
-        <v>0.7610868893792067</v>
+        <v>0.76</v>
       </c>
       <c r="G8">
         <v>16127</v>
@@ -2948,16 +2948,16 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>152.4615761228499</v>
+        <v>152.46</v>
       </c>
       <c r="D9">
-        <v>101.7781079363013</v>
+        <v>101.78</v>
       </c>
       <c r="E9">
-        <v>0.1522222815746567</v>
+        <v>0.15</v>
       </c>
       <c r="F9">
-        <v>0.8477777184253432</v>
+        <v>0.85</v>
       </c>
       <c r="G9">
         <v>23040</v>
